--- a/biology/Botanique/Systema_vegetabilium/Systema_vegetabilium.xlsx
+++ b/biology/Botanique/Systema_vegetabilium/Systema_vegetabilium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Systema vegetabilium, (abrév. : Syst. Veg.)[1], est un livre de descriptions botaniques écrit conjointement par Josef August Schultes (1773-1831), père du botaniste Julius H. Schultes (1804-1840), qui participa, avec Johann J. Roemer (1763-1819) et ses fils, à la réalisation de la septième édition du Systema vegetabilium. Ce livre a été édité en sept volumes dans les années 1817-1830 sous le nom suivant : Caroli a Linné ... Systema vegetabilium: secundum classes, ordines, genera, species. Cum characteribus differentiis et synonymis. Editio nova, speciebus inde ab editione XV. Detectis aucta et locupletata. Stuttgardtiae.
+Systema vegetabilium, (abrév. : Syst. Veg.), est un livre de descriptions botaniques écrit conjointement par Josef August Schultes (1773-1831), père du botaniste Julius H. Schultes (1804-1840), qui participa, avec Johann J. Roemer (1763-1819) et ses fils, à la réalisation de la septième édition du Systema vegetabilium. Ce livre a été édité en sept volumes dans les années 1817-1830 sous le nom suivant : Caroli a Linné ... Systema vegetabilium: secundum classes, ordines, genera, species. Cum characteribus differentiis et synonymis. Editio nova, speciebus inde ab editione XV. Detectis aucta et locupletata. Stuttgardtiae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Volumes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon IPNI[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon IPNI :
 nº 1 : janvier-juin 1817 ;
 nº 2 : novembre 1817 ;
 nº 3 : juillet 1818 ;
